--- a/storage/app/public/files/template_report_campaign_ivr_blast.xlsx
+++ b/storage/app/public/files/template_report_campaign_ivr_blast.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iwan\Documents\kerjaan\projects\pt_dalnet_system\ivrblast\storage\app\public\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\xampp5\htdocs\ivr-blast\storage\app\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74BBEBD-0D57-4BE6-B8B0-506F0FC3F80D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181E67B2-276E-4081-9C15-5345C4E15F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{494AA093-F60E-40B8-A3BD-38F34CC74876}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{494AA093-F60E-40B8-A3BD-38F34CC74876}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,8 +85,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -102,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,12 +118,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,85 +461,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAAF970-3DE8-437C-BC97-5CD527F67FF0}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="2" t="s">
         <v>7</v>
       </c>
     </row>
